--- a/8130_GPS_FLASH版本.xlsx
+++ b/8130_GPS_FLASH版本.xlsx
@@ -12,14 +12,15 @@
     <sheet name="NAV-5-2G" sheetId="2" r:id="rId3"/>
     <sheet name="AOP" sheetId="3" r:id="rId4"/>
     <sheet name="GPS-Time" sheetId="4" r:id="rId5"/>
-    <sheet name="备份AOP" sheetId="6" r:id="rId6"/>
+    <sheet name="打开UPD" sheetId="7" r:id="rId6"/>
+    <sheet name="备份AOP" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>0000  B5 62 06 24 24 00 FF FF 00 03 00 00 00 00 10 27
 0010  00 00 00 00 5E 01 5E 01 90 01 5E 01 64 3C 00 00 
@@ -45,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000  B5 62 09 14 04 00 00 00 00 00 21 EC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上电每10S发一次，发30次后，每5分钟发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">0000  B5 62 06 3E 3C 00 00 00 20 07 00
 000B  08 10 00 01 00 01 01 01 01 03 00
 0016  00 00 01 01 02 04 08 00 00 00 01
@@ -61,6 +54,18 @@
 0037  00 01 01 06 08 0E 00 00 00 01 01
 0042  2D 59
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5 62 09 14 04 00 00 00 00 00 21 EC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上电每10S发一次，发30次后，每5分钟发一次,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB5，0x62，0x06，0x01，0x08，0x00，0x09，0x14，0x01，0x00，0x00，0x00，0x00，0x00，0x2D，0x7D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,6 +389,58 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1400175" y="504825"/>
+          <a:ext cx="4276725" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -722,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B23:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -765,7 +822,7 @@
   <sheetData>
     <row r="21" spans="2:8" ht="108.75" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -891,17 +948,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C22:G23"/>
+  <dimension ref="C19:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="7" max="7" width="64.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="3:7" ht="49.5" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C22:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="22" spans="3:7" ht="26.25" customHeight="1">
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -910,17 +1000,25 @@
     </row>
     <row r="23" spans="3:7" ht="21.75" customHeight="1">
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
